--- a/results/MQG.xlsx
+++ b/results/MQG.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P128"/>
+  <dimension ref="A1:P167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6673,6 +6673,1884 @@
       </c>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>39</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="n">
+        <v>2.52845287322998</v>
+      </c>
+      <c r="E129" t="n">
+        <v>63.60315319987553</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>63.60315319987553</v>
+      </c>
+      <c r="H129" t="n">
+        <v>52</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-8.108107258076934</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>170</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="n">
+        <v>7.049674987792969</v>
+      </c>
+      <c r="E130" t="n">
+        <v>31.84664209996593</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>33.5684685691191</v>
+      </c>
+      <c r="H130" t="n">
+        <v>42</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-6.423024172094714</v>
+      </c>
+      <c r="J130" t="n">
+        <v>29</v>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>24</v>
+      </c>
+      <c r="M130" t="n">
+        <v>9.276621591640827</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1.721826469153164</v>
+      </c>
+      <c r="O130" t="n">
+        <v>-22.57002050832511</v>
+      </c>
+      <c r="P130" t="n">
+        <v>-24.29184697747827</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>211</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="n">
+        <v>8.85566234588623</v>
+      </c>
+      <c r="E131" t="n">
+        <v>36.84483947862524</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>47.12689851034992</v>
+      </c>
+      <c r="H131" t="n">
+        <v>48</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-4.593161288638102</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3</v>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>30</v>
+      </c>
+      <c r="M131" t="n">
+        <v>3.352148729758821</v>
+      </c>
+      <c r="N131" t="n">
+        <v>10.28205903172469</v>
+      </c>
+      <c r="O131" t="n">
+        <v>-33.49269074886642</v>
+      </c>
+      <c r="P131" t="n">
+        <v>-43.7747497805911</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>253</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="n">
+        <v>10.9361457824707</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-7.624147800107768</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>24.2240710142634</v>
+      </c>
+      <c r="H132" t="n">
+        <v>13</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-10.84125128040218</v>
+      </c>
+      <c r="J132" t="n">
+        <v>49</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>35</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-0.479211467658698</v>
+      </c>
+      <c r="N132" t="n">
+        <v>31.84821881437117</v>
+      </c>
+      <c r="O132" t="n">
+        <v>7.14493633244907</v>
+      </c>
+      <c r="P132" t="n">
+        <v>-24.70328248192209</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>335</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>8.412820816040039</v>
+      </c>
+      <c r="E133" t="n">
+        <v>51.64844183777737</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>53.40737244847923</v>
+      </c>
+      <c r="H133" t="n">
+        <v>40</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-8.636357258400983</v>
+      </c>
+      <c r="J133" t="n">
+        <v>10</v>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>10</v>
+      </c>
+      <c r="M133" t="n">
+        <v>-5.37188649254173</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1.75893061070186</v>
+      </c>
+      <c r="O133" t="n">
+        <v>-57.0203283303191</v>
+      </c>
+      <c r="P133" t="n">
+        <v>-58.77925894102096</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>357</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>10.2325267791748</v>
+      </c>
+      <c r="E134" t="n">
+        <v>20.16998425474543</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>31.72401757012658</v>
+      </c>
+      <c r="H134" t="n">
+        <v>44</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-4.504503899069212</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>35</v>
+      </c>
+      <c r="M134" t="n">
+        <v>19.57301784915759</v>
+      </c>
+      <c r="N134" t="n">
+        <v>11.55403331538115</v>
+      </c>
+      <c r="O134" t="n">
+        <v>-0.5969664055878425</v>
+      </c>
+      <c r="P134" t="n">
+        <v>-12.15099972096899</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>431</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>14.92532634735107</v>
+      </c>
+      <c r="E135" t="n">
+        <v>73.7213360042872</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>102.2353280733419</v>
+      </c>
+      <c r="H135" t="n">
+        <v>47</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-2.346847077343599</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>20</v>
+      </c>
+      <c r="M135" t="n">
+        <v>18.43435468075164</v>
+      </c>
+      <c r="N135" t="n">
+        <v>28.51399206905467</v>
+      </c>
+      <c r="O135" t="n">
+        <v>-55.28698132353556</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-83.80097339259022</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>467</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>24.00313377380371</v>
+      </c>
+      <c r="E136" t="n">
+        <v>8.452130409060961</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>25.75142474739937</v>
+      </c>
+      <c r="H136" t="n">
+        <v>11</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-5.46026288596013</v>
+      </c>
+      <c r="J136" t="n">
+        <v>34</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>31</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-2.918378917649452</v>
+      </c>
+      <c r="N136" t="n">
+        <v>17.29929433833841</v>
+      </c>
+      <c r="O136" t="n">
+        <v>-11.37050932671041</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-28.66980366504882</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>494</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>27.71049880981445</v>
+      </c>
+      <c r="E137" t="n">
+        <v>16.3177862323983</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>18.00355946665146</v>
+      </c>
+      <c r="H137" t="n">
+        <v>50</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-18.10865721100568</v>
+      </c>
+      <c r="J137" t="n">
+        <v>7</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>4</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-15.90684982573989</v>
+      </c>
+      <c r="N137" t="n">
+        <v>1.685773234253165</v>
+      </c>
+      <c r="O137" t="n">
+        <v>-32.22463605813819</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-33.91040929239136</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>532</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>28.32625579833984</v>
+      </c>
+      <c r="E138" t="n">
+        <v>26.56736369172526</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>41.45147085584136</v>
+      </c>
+      <c r="H138" t="n">
+        <v>31</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-9.322662776231375</v>
+      </c>
+      <c r="J138" t="n">
+        <v>44</v>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>37</v>
+      </c>
+      <c r="M138" t="n">
+        <v>24.51656831715542</v>
+      </c>
+      <c r="N138" t="n">
+        <v>14.88410716411611</v>
+      </c>
+      <c r="O138" t="n">
+        <v>-2.05079537456983</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-16.93490253868594</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>537</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>30.37721252441406</v>
+      </c>
+      <c r="E139" t="n">
+        <v>9.962660758157144</v>
+      </c>
+      <c r="F139" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>31.90119216151686</v>
+      </c>
+      <c r="H139" t="n">
+        <v>26</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-15.44486027977521</v>
+      </c>
+      <c r="J139" t="n">
+        <v>39</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>32</v>
+      </c>
+      <c r="M139" t="n">
+        <v>16.10967143375958</v>
+      </c>
+      <c r="N139" t="n">
+        <v>21.93853140335972</v>
+      </c>
+      <c r="O139" t="n">
+        <v>6.147010675602433</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-15.79152072775728</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>551</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>34.42573928833008</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-32.45576126591376</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>16.38938275095318</v>
+      </c>
+      <c r="H140" t="n">
+        <v>12</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-35.16245168880292</v>
+      </c>
+      <c r="J140" t="n">
+        <v>52</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>18</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2.454972302623713</v>
+      </c>
+      <c r="N140" t="n">
+        <v>48.84514401686694</v>
+      </c>
+      <c r="O140" t="n">
+        <v>34.91073356853748</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-13.93441044832947</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>670</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>17.42398262023926</v>
+      </c>
+      <c r="E141" t="n">
+        <v>25.23122410766721</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>59.43609672470216</v>
+      </c>
+      <c r="H141" t="n">
+        <v>17</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-12.47288372066117</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>21</v>
+      </c>
+      <c r="M141" t="n">
+        <v>35.5749007819765</v>
+      </c>
+      <c r="N141" t="n">
+        <v>34.20487261703495</v>
+      </c>
+      <c r="O141" t="n">
+        <v>10.34367667430929</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-23.86119594272567</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>754</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>20.02308464050293</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-37.05187427193516</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>5.934327516437474</v>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-48.05799450349621</v>
+      </c>
+      <c r="J142" t="n">
+        <v>37</v>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>19</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-11.61522111690732</v>
+      </c>
+      <c r="N142" t="n">
+        <v>42.98620178837264</v>
+      </c>
+      <c r="O142" t="n">
+        <v>25.43665315502784</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-17.54954863334479</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>808</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>13.71628475189209</v>
+      </c>
+      <c r="E143" t="n">
+        <v>57.13018406241389</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>57.17154499108423</v>
+      </c>
+      <c r="H143" t="n">
+        <v>52</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-5.053376928367801</v>
+      </c>
+      <c r="J143" t="n">
+        <v>26</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>15</v>
+      </c>
+      <c r="M143" t="n">
+        <v>11.04582373925322</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.04136092867033625</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-46.08436032316067</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-46.125721251831</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>811</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>14.16221332550049</v>
+      </c>
+      <c r="E144" t="n">
+        <v>51.4214832880218</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>58.99256886667863</v>
+      </c>
+      <c r="H144" t="n">
+        <v>51</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-8.042981111142737</v>
+      </c>
+      <c r="J144" t="n">
+        <v>23</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>12</v>
+      </c>
+      <c r="M144" t="n">
+        <v>7.549300657225374</v>
+      </c>
+      <c r="N144" t="n">
+        <v>7.571085578656827</v>
+      </c>
+      <c r="O144" t="n">
+        <v>-43.87218263079643</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-51.44326820945326</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>842</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>16.0633602142334</v>
+      </c>
+      <c r="E145" t="n">
+        <v>81.91718970242445</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>83.11784296816823</v>
+      </c>
+      <c r="H145" t="n">
+        <v>52</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-3.062676687437465</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>26</v>
+      </c>
+      <c r="M145" t="n">
+        <v>25.2006957635202</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1.200653265743782</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-56.71649393890425</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-57.91714720464803</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>846</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>17.30708122253418</v>
+      </c>
+      <c r="E146" t="n">
+        <v>69.41830382652654</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>70.36383138754047</v>
+      </c>
+      <c r="H146" t="n">
+        <v>52</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-8.080484466815564</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>22</v>
+      </c>
+      <c r="M146" t="n">
+        <v>16.20352671041488</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.9455275610139324</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-53.21477711611166</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-54.16030467712559</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>886</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>25.13677406311035</v>
+      </c>
+      <c r="E147" t="n">
+        <v>45.25580228226783</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>51.82230014484973</v>
+      </c>
+      <c r="H147" t="n">
+        <v>52</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-1.534517486737804</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>6.566497862581905</v>
+      </c>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>932</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>37.35973358154297</v>
+      </c>
+      <c r="E148" t="n">
+        <v>38.87365563126236</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>44.10958106946588</v>
+      </c>
+      <c r="H148" t="n">
+        <v>51</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-8.886303616602277</v>
+      </c>
+      <c r="J148" t="n">
+        <v>18</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>16</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-4.601552233441534</v>
+      </c>
+      <c r="N148" t="n">
+        <v>5.235925438203516</v>
+      </c>
+      <c r="O148" t="n">
+        <v>-43.47520786470389</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-48.71113330290741</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>965</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>39.54248428344727</v>
+      </c>
+      <c r="E149" t="n">
+        <v>20.36904925560674</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>42.99791603394524</v>
+      </c>
+      <c r="H149" t="n">
+        <v>39</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-2.075624913685973</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>28</v>
+      </c>
+      <c r="M149" t="n">
+        <v>30.15252524521683</v>
+      </c>
+      <c r="N149" t="n">
+        <v>22.6288667783385</v>
+      </c>
+      <c r="O149" t="n">
+        <v>9.783475989610089</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-12.84539078872841</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>975</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>51.14119720458984</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-18.94439190718313</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>10.56629794404796</v>
+      </c>
+      <c r="H150" t="n">
+        <v>29</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-24.22328237190952</v>
+      </c>
+      <c r="J150" t="n">
+        <v>44</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>18</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0.6342140050265842</v>
+      </c>
+      <c r="N150" t="n">
+        <v>29.51068985123109</v>
+      </c>
+      <c r="O150" t="n">
+        <v>19.57860591220972</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-9.932083939021378</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>47.67670440673828</v>
+      </c>
+      <c r="E151" t="n">
+        <v>36.9180204257234</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>42.44618801385813</v>
+      </c>
+      <c r="H151" t="n">
+        <v>52</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-8.92607275995327</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>5.528167588134728</v>
+      </c>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>53.33588409423828</v>
+      </c>
+      <c r="E152" t="n">
+        <v>17.69420875113595</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>27.33200011841616</v>
+      </c>
+      <c r="H152" t="n">
+        <v>39</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-7.47999379837969</v>
+      </c>
+      <c r="J152" t="n">
+        <v>13</v>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>9.637791367280212</v>
+      </c>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1052</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>56.36243057250977</v>
+      </c>
+      <c r="E153" t="n">
+        <v>17.25505518652937</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>20.49453387334581</v>
+      </c>
+      <c r="H153" t="n">
+        <v>32</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-12.44812764383072</v>
+      </c>
+      <c r="J153" t="n">
+        <v>6</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>49</v>
+      </c>
+      <c r="M153" t="n">
+        <v>6.654119407734906</v>
+      </c>
+      <c r="N153" t="n">
+        <v>3.23947868681644</v>
+      </c>
+      <c r="O153" t="n">
+        <v>-10.60093577879446</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-13.8404144656109</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1076</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>62.64940643310547</v>
+      </c>
+      <c r="E154" t="n">
+        <v>24.2713250295345</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>27.56469134849003</v>
+      </c>
+      <c r="H154" t="n">
+        <v>52</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-4.536100582175249</v>
+      </c>
+      <c r="J154" t="n">
+        <v>25</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>25</v>
+      </c>
+      <c r="M154" t="n">
+        <v>-4.048805206012044</v>
+      </c>
+      <c r="N154" t="n">
+        <v>3.293366318955531</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-28.32013023554654</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-31.61349655450207</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1083</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>66.87066650390625</v>
+      </c>
+      <c r="E155" t="n">
+        <v>19.87833935281656</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>23.14138618921358</v>
+      </c>
+      <c r="H155" t="n">
+        <v>52</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-10.56232953851241</v>
+      </c>
+      <c r="J155" t="n">
+        <v>18</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>18</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-10.10579504184431</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3.263046836397013</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-29.98413439466087</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-33.24718123105789</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1113</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>72.88258361816406</v>
+      </c>
+      <c r="E156" t="n">
+        <v>22.02263697617029</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>36.09084565187785</v>
+      </c>
+      <c r="H156" t="n">
+        <v>40</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-2.75963588990824</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>14.06820867570756</v>
+      </c>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>80.16344451904297</v>
+      </c>
+      <c r="E157" t="n">
+        <v>24.89224752248056</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>32.67801426541499</v>
+      </c>
+      <c r="H157" t="n">
+        <v>52</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-1.694289227720355</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>33</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1.631902670772937</v>
+      </c>
+      <c r="N157" t="n">
+        <v>7.785766742934431</v>
+      </c>
+      <c r="O157" t="n">
+        <v>-23.26034485170762</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-31.04611159464205</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>101.5869216918945</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-32.35487019685245</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>22.25072768093301</v>
+      </c>
+      <c r="H158" t="n">
+        <v>46</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-43.46856474049306</v>
+      </c>
+      <c r="J158" t="n">
+        <v>51</v>
+      </c>
+      <c r="K158" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>54.60559787778546</v>
+      </c>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1207</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>104.8887405395508</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-3.08958183447646</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>18.40236650584204</v>
+      </c>
+      <c r="H159" t="n">
+        <v>22</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-45.24813190341953</v>
+      </c>
+      <c r="J159" t="n">
+        <v>27</v>
+      </c>
+      <c r="K159" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>21.4919483403185</v>
+      </c>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1249</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>99.35903167724609</v>
+      </c>
+      <c r="E160" t="n">
+        <v>32.75764219618439</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>36.58159229007574</v>
+      </c>
+      <c r="H160" t="n">
+        <v>42</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-1.201988674725007</v>
+      </c>
+      <c r="J160" t="n">
+        <v>10</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>26</v>
+      </c>
+      <c r="M160" t="n">
+        <v>18.79040821574627</v>
+      </c>
+      <c r="N160" t="n">
+        <v>3.823950093891348</v>
+      </c>
+      <c r="O160" t="n">
+        <v>-13.96723398043812</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-17.79118407432947</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>120.8175048828125</v>
+      </c>
+      <c r="E161" t="n">
+        <v>38.72125877884731</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>55.97530873236595</v>
+      </c>
+      <c r="H161" t="n">
+        <v>47</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-7.686440554282813</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>17.25404995351863</v>
+      </c>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1291</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>134.3914642333984</v>
+      </c>
+      <c r="E162" t="n">
+        <v>33.54963435053322</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>40.22131339862013</v>
+      </c>
+      <c r="H162" t="n">
+        <v>36</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-7.402350176302321</v>
+      </c>
+      <c r="J162" t="n">
+        <v>3</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>43</v>
+      </c>
+      <c r="M162" t="n">
+        <v>16.15424799763928</v>
+      </c>
+      <c r="N162" t="n">
+        <v>6.671679048086901</v>
+      </c>
+      <c r="O162" t="n">
+        <v>-17.39538635289395</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-24.06706540098085</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1306</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>140.7096099853516</v>
+      </c>
+      <c r="E163" t="n">
+        <v>12.20208761113241</v>
+      </c>
+      <c r="F163" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>33.92509314987515</v>
+      </c>
+      <c r="H163" t="n">
+        <v>21</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-3.836331300157761</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>28</v>
+      </c>
+      <c r="M163" t="n">
+        <v>10.93868760603565</v>
+      </c>
+      <c r="N163" t="n">
+        <v>21.72300553874274</v>
+      </c>
+      <c r="O163" t="n">
+        <v>-1.263400005096759</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-22.9864055438395</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1381</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>162.6977233886719</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5.639847398719895</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>8.26604804605763</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-11.88990635204737</v>
+      </c>
+      <c r="J164" t="n">
+        <v>41</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>8</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-2.771014235045662</v>
+      </c>
+      <c r="N164" t="n">
+        <v>2.626200647337735</v>
+      </c>
+      <c r="O164" t="n">
+        <v>-8.410861633765556</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-11.03706228110329</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1403</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>159.4884185791016</v>
+      </c>
+      <c r="E165" t="n">
+        <v>19.40490610953658</v>
+      </c>
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>19.40490610953658</v>
+      </c>
+      <c r="H165" t="n">
+        <v>52</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-10.11691148611722</v>
+      </c>
+      <c r="J165" t="n">
+        <v>19</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>8</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-2.303507776759282</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>-21.70841388629586</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-21.70841388629586</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1434</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>174.9870300292969</v>
+      </c>
+      <c r="E166" t="n">
+        <v>32.39327865921982</v>
+      </c>
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+      <c r="G166" t="n">
+        <v>33.69304479223621</v>
+      </c>
+      <c r="H166" t="n">
+        <v>52</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-3.531645205079598</v>
+      </c>
+      <c r="J166" t="n">
+        <v>3</v>
+      </c>
+      <c r="K166" t="b">
+        <v>0</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>1.299766133016384</v>
+      </c>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1459</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>200.9907836914062</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.55033217098037</v>
+      </c>
+      <c r="F167" t="b">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>16.96432680263231</v>
+      </c>
+      <c r="H167" t="n">
+        <v>28</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-22.95474284669284</v>
+      </c>
+      <c r="J167" t="n">
+        <v>38</v>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>37</v>
+      </c>
+      <c r="M167" t="n">
+        <v>-16.21328270928351</v>
+      </c>
+      <c r="N167" t="n">
+        <v>5.413994631651939</v>
+      </c>
+      <c r="O167" t="n">
+        <v>-27.76361488026388</v>
+      </c>
+      <c r="P167" t="n">
+        <v>-33.17760951191582</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6685,7 +8563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6898,40 +8776,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>39</v>
+      </c>
+      <c r="C4" t="n">
+        <v>84.61538461538461</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.266190342715</v>
+      </c>
+      <c r="E4" t="n">
+        <v>24.2713250295345</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27.41128104455479</v>
+      </c>
+      <c r="G4" t="n">
+        <v>37.67515471752895</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-11.69707270672962</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13.40896437481395</v>
+      </c>
+      <c r="J4" t="n">
+        <v>76.92307692307693</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24.26666666666667</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-17.57684378804823</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>75</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>20.16848479489691</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>20.84577462504845</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>33.91519962991962</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>36.1059580099664</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-17.94160814313121</v>
       </c>
     </row>
